--- a/Files/withCellsMergingTemplate.xlsx
+++ b/Files/withCellsMergingTemplate.xlsx
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -146,6 +146,7 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,7 +459,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,10 +541,10 @@
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -660,6 +661,9 @@
       <c r="E41" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
